--- a/Old Xibar UI - 06.xlsx
+++ b/Old Xibar UI - 06.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ABDP\Databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA7FAFC-32D2-4747-9950-B0996AD64A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7765099A-FCD0-41EE-B330-2A5CAA5A43DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E2162F22-26B8-475A-B8F4-FE00C3D00CD5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{E2162F22-26B8-475A-B8F4-FE00C3D00CD5}"/>
   </bookViews>
   <sheets>
-    <sheet name="001 (110)" sheetId="44" r:id="rId1"/>
-    <sheet name="001 (111)" sheetId="45" r:id="rId2"/>
-    <sheet name="001 (112)" sheetId="46" r:id="rId3"/>
-    <sheet name="001 (113)" sheetId="47" r:id="rId4"/>
+    <sheet name="001" sheetId="44" r:id="rId1"/>
+    <sheet name="002" sheetId="45" r:id="rId2"/>
+    <sheet name="003" sheetId="46" r:id="rId3"/>
+    <sheet name="004" sheetId="47" r:id="rId4"/>
     <sheet name="001 (114)" sheetId="48" r:id="rId5"/>
     <sheet name="001 (115)" sheetId="49" r:id="rId6"/>
     <sheet name="001 (116)" sheetId="50" r:id="rId7"/>
@@ -53,10 +53,205 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+  <si>
+    <r>
+      <t xml:space="preserve">Customer Care | Penyambungan Baru | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pembayaran Biaya Penyambungan Baru</t>
+    </r>
+  </si>
+  <si>
+    <t>http://localhost:8080/Xibar/pages/srvc/collection/SrvcCollectionAction_list.action?changeCode=A</t>
+  </si>
+  <si>
+    <t>Pencetakan Kuitansi</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/Xibar/pages/srvc/collection/SrvcCollectionAction_receiptlist.action?changeCode=A</t>
+  </si>
+  <si>
+    <t>Double Click</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/Xibar/pages/srvc/installment/InstallmentAction_list.action</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/Xibar/pages/srvc/collection/SrvcCollectionAction_ajaxReportRekapCetak.action?&amp;tglAwal=11/30/2022&amp;tglAkhir=11/30/2022&amp;changeCode=A&amp;zoneId=0&amp;areaGroupCode=none&amp;routeGroupCode=none&amp;routeId=none</t>
+  </si>
+  <si>
+    <t>Rekap Cetak Kuitansi // Daftar Cetak Kuitansi</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/Xibar/pages/srvc/collection/SrvcCollectionAction_ajaxReportDaftarCetak.action?&amp;tglAwal=11/30/2022&amp;tglAkhir=11/30/2022&amp;changeCode=A&amp;zoneId=0&amp;areaGroupCode=none&amp;routeGroupCode=none&amp;routeId=none</t>
+  </si>
+  <si>
+    <t>Cetak Kuitansi</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/Xibar/pages/srvc/collection/SrvcCollectionAction_ajaxPrint.action</t>
+  </si>
+  <si>
+    <t>Lunas</t>
+  </si>
+  <si>
+    <t>Rekap Pelunasan // Daftar Pelunasan</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/Xibar/pages/srvc/collection/SrvcCollectionAction_ajaxReportRekap.action?&amp;tglAwal=11/30/2022&amp;tglAkhir=11/30/2022&amp;changeCode=A&amp;zoneId=0&amp;areaGroupCode=none&amp;routeGroupCode=none&amp;routeId=none</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/Xibar/pages/srvc/collection/SrvcCollectionAction_ajaxReportDaftar.action?&amp;tglAwal=11/30/2022&amp;tglAkhir=11/30/2022&amp;changeCode=A&amp;zoneId=0&amp;areaGroupCode=none&amp;routeGroupCode=none&amp;routeId=none</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Customer Care | Perubahan Data Pelanggan (Balik Nama) | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pembayaran Biaya Perubahan Data Pelanggan</t>
+    </r>
+  </si>
+  <si>
+    <t>http://localhost:8080/Xibar/pages/srvc/collection/SrvcCollectionAction_list.action?changeCode=D</t>
+  </si>
+  <si>
+    <t>Angsuran</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/Xibar/pages/srvc/installment/InstallmentAction_listReceipt.action?receiptNbrId=20707e28-2922-42f7-93fb-a3f5cc4dd24b</t>
+  </si>
+  <si>
+    <t>Angsur</t>
+  </si>
+  <si>
+    <t>Daftar Angsuran</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/Xibar/pages/srvc/installment/InstallmentAction_listDetail.action?extraId=01b83c0d-4aa6-4530-9a35-929c39af83e9</t>
+  </si>
+  <si>
+    <t>Re-Schedule Angsuran</t>
+  </si>
+  <si>
+    <t>Pelunasan Angsuran</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/Xibar/pages/srvc/installment/collection/InstallmentCollectionAction_list.action?installmentId=01b83c0d-4aa6-4530-9a35-929c39af83e9</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/Xibar/pages/srvc/installment/collection/InstallmentCollectionAction_detaillist.action?installmentId=01b83c0d-4aa6-4530-9a35-929c39af83e9</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Customer Care | Penyambungan Kembali | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pembayaran Penyambungan Kembali</t>
+    </r>
+  </si>
+  <si>
+    <t>http://localhost:8080/Xibar/pages/srvc/collection/SrvcCollectionAction_list.action?changeCode=J</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/Xibar/pages/srvc/collection/SrvcCollectionAction_receiptlist.action?changeCode=J</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/Xibar/pages/srvc/installment/InstallmentAction_listReceipt.action?receiptNbrId=0f0ac6f6-4852-45d3-9a5d-58ae842f492b</t>
+  </si>
+  <si>
+    <t>Daftar Pelunasan Kuitansi</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>BACK TO a</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Collection | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pembayaran Rekening</t>
+    </r>
+  </si>
+  <si>
+    <t>http://localhost:8080/Xibar/pages/bill/collection/pembayaran/rekening/PembayaranRekeningAction_list.action</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/Xibar/pages/bill/collection/pembayaran/rekening/PembayaranRekeningAction_ajaxPrintReceipt.action?selectedIds=1001026375&amp;selectedVal=2022-03-01T00:00:00,41862,false;2022-02-01T00:00:00,16513,false;2022-01-01T00:00:00,30885,false&amp;windowLocationProtocol=http:&amp;windowLocationHost=localhost:8080&amp;extraContextPath=/Xibar</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/Xibar/pages/bill/collection/pembayaran/kolektif/PembayaranKolektifAction_list.action</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Collection | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pembayaran Rekening Kolektif</t>
+    </r>
+  </si>
+  <si>
+    <t>2004024122</t>
+  </si>
+  <si>
+    <t>1003013285</t>
+  </si>
+  <si>
+    <t>1002016269</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -83,9 +278,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -108,6 +306,2081 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>112928</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>56214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35C6AC58-91C3-1BC5-B321-718CF7320F6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="6667500"/>
+          <a:ext cx="10971428" cy="7485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>157751</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>22596</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="Group 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75D606D3-8714-A23B-265E-9B555146EC57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="190500" y="14859000"/>
+          <a:ext cx="15016751" cy="8404596"/>
+          <a:chOff x="190500" y="14859000"/>
+          <a:chExt cx="15016751" cy="8404596"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="Picture 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F07E3E62-5A33-A8FE-2B81-5312FAF527D4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="190500" y="14859000"/>
+            <a:ext cx="10972800" cy="7486650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:effectLst>
+            <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="95000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="6" name="Picture 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25A4FD0B-F5AD-3031-A7B9-04608C68AD56}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4235823" y="15777882"/>
+            <a:ext cx="10971428" cy="7485714"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:effectLst>
+            <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="95000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>112928</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>56214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FC684C7-9BA2-0D49-5BC8-3BF91EFAC78F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="32004000"/>
+          <a:ext cx="10971428" cy="7485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>117</xdr:col>
+      <xdr:colOff>112928</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>56214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02C22AB7-B0F2-BAF6-94A1-0C34EDD6D854}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11430000" y="32385000"/>
+          <a:ext cx="10971428" cy="7485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>112928</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>56214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B74014D0-896F-DFDE-8FD7-12599183A339}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="24003000"/>
+          <a:ext cx="10971428" cy="7485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>112928</xdr:colOff>
+      <xdr:row>252</xdr:row>
+      <xdr:rowOff>56214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC01B64D-6577-F4BF-7E8B-70DAD0D35B97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="40576500"/>
+          <a:ext cx="10971428" cy="7485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>112928</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>37952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C1BDBBC-7237-F139-F102-238A04B3FE46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="48577500"/>
+          <a:ext cx="10971428" cy="1180952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>103786</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>132738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{602B879D-BF3C-79C1-3BD0-3A40B4A36550}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="762000"/>
+          <a:ext cx="7914286" cy="4895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>265</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>103786</xdr:colOff>
+      <xdr:row>290</xdr:row>
+      <xdr:rowOff>132738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A5740D5-8D33-7E53-2572-0B7E1FDE0636}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="50482500"/>
+          <a:ext cx="7914286" cy="4895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>103786</xdr:colOff>
+      <xdr:row>320</xdr:row>
+      <xdr:rowOff>132738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5BEDE81-90DE-833A-5F35-DEF62247ED81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="56197500"/>
+          <a:ext cx="7914286" cy="4895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>324</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>103786</xdr:colOff>
+      <xdr:row>349</xdr:row>
+      <xdr:rowOff>132738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE1190A6-8BDA-4B35-01C0-A49EB683E2DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="61722000"/>
+          <a:ext cx="7914286" cy="4895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>326</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>103786</xdr:colOff>
+      <xdr:row>351</xdr:row>
+      <xdr:rowOff>132738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{270EDB49-D11C-24F4-46AF-320A942AF9BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8382000" y="62103000"/>
+          <a:ext cx="7914286" cy="4895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>84309</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>37167</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B3EC621-13E2-2DF3-3A84-B81F628656EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="762000"/>
+          <a:ext cx="11323809" cy="7466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>147062</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>10273</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="Group 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0C3C11D-7AF3-DFF0-3EF1-C9D453280F42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="190500" y="8953500"/>
+          <a:ext cx="15387062" cy="8392273"/>
+          <a:chOff x="190500" y="8953500"/>
+          <a:chExt cx="15387062" cy="8392273"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Picture 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D934034C-2125-E7A1-180A-AB6E8929964C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="190500" y="8953500"/>
+            <a:ext cx="11323809" cy="7466667"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:effectLst>
+            <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="95000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="Picture 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B799AA2D-95A2-22A9-E07B-34CE114B10BB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4253753" y="9879106"/>
+            <a:ext cx="11323809" cy="7466667"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:effectLst>
+            <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="95000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>84309</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>190024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C8442E3-B110-1C5F-2181-E86154F57D6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="18288000"/>
+          <a:ext cx="11323809" cy="3809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>84309</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>190024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5691C09C-679B-1FFB-77E0-5B7CC7C9BE55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="22860000"/>
+          <a:ext cx="11323809" cy="3809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>84309</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>65881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BEDAE64-92E4-CE31-28B4-11385784545E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="27622500"/>
+          <a:ext cx="11323809" cy="6352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>84309</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>189905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AE281BA-96A6-A5D6-C582-5EE501BA8421}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="34861500"/>
+          <a:ext cx="11323809" cy="4761905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>147062</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>151805</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="Group 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EAE7597-12D3-F26D-DA67-FF033A2BF41B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="190500" y="40386000"/>
+          <a:ext cx="15387062" cy="5676305"/>
+          <a:chOff x="190500" y="40386000"/>
+          <a:chExt cx="15387062" cy="5676305"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="10" name="Picture 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACAE3DC2-800D-629A-99AE-F288E33FD183}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="190500" y="40386000"/>
+            <a:ext cx="11323809" cy="4761905"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:effectLst>
+            <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="95000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="11" name="Picture 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{764DB3FA-4094-BC65-CBDF-72E95E0A72AA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4253753" y="41300400"/>
+            <a:ext cx="11323809" cy="4761905"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:effectLst>
+            <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="95000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>103</xdr:col>
+      <xdr:colOff>12591</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>55997</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="16" name="Group 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{119B1C71-1BFC-A181-D405-6296A2003606}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="190500" y="46863000"/>
+          <a:ext cx="19443591" cy="6532997"/>
+          <a:chOff x="190500" y="46863000"/>
+          <a:chExt cx="19443591" cy="6532997"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="13" name="Picture 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9940531-C46E-10E0-B99D-AC2D99F350E0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="190500" y="46863000"/>
+            <a:ext cx="11323809" cy="5600000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:effectLst>
+            <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="95000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="14" name="Picture 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB991836-B592-0EC5-DDF3-455B2BB54B0E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4247029" y="47770676"/>
+            <a:ext cx="11323809" cy="4733333"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:effectLst>
+            <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="95000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="15" name="Picture 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13D97F76-C477-B743-BF6B-9E3D66EBF6EC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8310282" y="48662664"/>
+            <a:ext cx="11323809" cy="4733333"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:effectLst>
+            <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="95000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>285</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>84309</xdr:colOff>
+      <xdr:row>304</xdr:row>
+      <xdr:rowOff>170976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DABBAB31-BC58-A3CD-97C3-7DF66B615D41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="54292500"/>
+          <a:ext cx="11323809" cy="3790476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>310</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>84309</xdr:colOff>
+      <xdr:row>329</xdr:row>
+      <xdr:rowOff>170976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE43F06B-505A-BA61-9BF1-877A13A5476B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="59055000"/>
+          <a:ext cx="11323809" cy="3790476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>84309</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>170833</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB33898E-DC29-8428-A49F-7C4E75223295}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="762000"/>
+          <a:ext cx="11323809" cy="4933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>84309</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>27643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A8B82E6-A483-A5E5-B68B-694846AAF719}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="6667500"/>
+          <a:ext cx="11323809" cy="7457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>124650</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>180043</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="Group 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10D4F313-3097-A6C3-D217-3A5BCE01496F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="571500" y="14859000"/>
+          <a:ext cx="15364650" cy="8371543"/>
+          <a:chOff x="190500" y="14859000"/>
+          <a:chExt cx="15364650" cy="8371543"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="Picture 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D21EF588-101B-72E3-06C9-BA75E7A85231}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="190500" y="14859000"/>
+            <a:ext cx="11323809" cy="7457143"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:effectLst>
+            <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="95000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="6" name="Picture 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A71424A-2218-E0A8-B2FD-B57AD08A0860}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4231341" y="15773400"/>
+            <a:ext cx="11323809" cy="7457143"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:effectLst>
+            <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="95000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>84309</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>190024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C4AFF3D-60BB-E7E6-930C-DB6A660A5129}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="24193500"/>
+          <a:ext cx="11323809" cy="3809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>84309</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>190024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8710B754-5B67-1E64-41B9-4BBE405CAE34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="28765500"/>
+          <a:ext cx="11323809" cy="3809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A871E94C-5048-F246-DE9D-24586B966A6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="33528000"/>
+          <a:ext cx="11325225" cy="6353175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{681BE06B-669A-6704-A9B7-892A6D1F39BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="40767000"/>
+          <a:ext cx="11325225" cy="4724400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>84309</xdr:colOff>
+      <xdr:row>263</xdr:row>
+      <xdr:rowOff>180500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{736CD7E2-833A-1A8E-29F4-A174905BAC11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="46482000"/>
+          <a:ext cx="11323809" cy="3800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>84309</xdr:colOff>
+      <xdr:row>288</xdr:row>
+      <xdr:rowOff>180500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D871A74-3AE5-DBCE-7688-C010F47C7FFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="51244500"/>
+          <a:ext cx="11323809" cy="3800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>89</xdr:col>
+      <xdr:colOff>131238</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>151643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0D2F612-A84C-D986-0387-287649142C2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="762000"/>
+          <a:ext cx="16895238" cy="6057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>89</xdr:col>
+      <xdr:colOff>131238</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>151643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88ABF180-DD68-28E7-D77F-A330424A36AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="7810500"/>
+          <a:ext cx="16895238" cy="6057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>55428</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28353CAC-6FAD-7158-9A6E-473A7E4609EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="762000"/>
+          <a:ext cx="13771428" cy="5838095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -427,18 +2700,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED08E2D2-7263-4E66-8C3D-A86A82C6E007}">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="B2:BI325"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="2.85546875" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B125" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="B167" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="BI169" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B212" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B254" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B264" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B294" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="323" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B323" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="325" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="AS325" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -614,69 +2961,303 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC77BCC8-1983-4C95-A03F-822B932320C3}">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor rgb="FF0000FF"/>
+  </sheetPr>
+  <dimension ref="B2:B309"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="2.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B143" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B144" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B181" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B182" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B211" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B245" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B283" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B284" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B308" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B309" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E55AB08-EB21-4679-B373-18FA2D5AE214}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="B2:D293"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="2.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D77" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D125" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D126" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D150" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="174" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D174" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="175" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D175" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D212" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D213" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B242" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="243" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D243" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="267" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D267" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D268" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="292" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D292" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="293" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D293" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC4A1452-675A-4897-9CA6-CC73BACEA629}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="B2:B40"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="2.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8991E391-D7E8-4FA7-A07D-82D367357930}">
+  <dimension ref="B2:BW38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="2.85546875" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="75:75" x14ac:dyDescent="0.25">
+      <c r="BW31" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="75:75" x14ac:dyDescent="0.25">
+      <c r="BW32" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="2:75" x14ac:dyDescent="0.25">
+      <c r="BW33" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="2:75" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E55AB08-EB21-4679-B373-18FA2D5AE214}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="2.85546875" style="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC4A1452-675A-4897-9CA6-CC73BACEA629}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="2.85546875" style="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8991E391-D7E8-4FA7-A07D-82D367357930}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="2.85546875" style="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
